--- a/public/templates/template_siswa.xlsx
+++ b/public/templates/template_siswa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\akademik\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B986CA-CEDF-454F-A5A8-A468E4EC456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FDCBEA-2514-41FF-B40D-F0DF91111EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{208537F3-6AD5-4600-AF24-3E175ED132CB}"/>
+    <workbookView xWindow="3192" yWindow="348" windowWidth="17280" windowHeight="9420" xr2:uid="{208537F3-6AD5-4600-AF24-3E175ED132CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,15 +49,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +71,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,19 +411,22 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/public/templates/template_siswa.xlsx
+++ b/public/templates/template_siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\akademik\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FDCBEA-2514-41FF-B40D-F0DF91111EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C62624-851A-499F-8ED0-D04D1C32ACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="348" windowWidth="17280" windowHeight="9420" xr2:uid="{208537F3-6AD5-4600-AF24-3E175ED132CB}"/>
+    <workbookView xWindow="3540" yWindow="696" windowWidth="17280" windowHeight="9420" xr2:uid="{208537F3-6AD5-4600-AF24-3E175ED132CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>NIS</t>
-  </si>
-  <si>
     <t>NAMA</t>
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>NISN</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,13 +421,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
